--- a/src/listdonhang/donhang.xlsx
+++ b/src/listdonhang/donhang.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="10">
   <si>
     <t>Ma Don Hang</t>
   </si>
@@ -106,7 +106,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -477,8 +477,59 @@
       </c>
     </row>
     <row r="22">
-      <c r="E22">
-        <f>SUM(E2:E21)</f>
+      <c r="A22" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="n">
+        <v>45121.687313599534</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" t="n">
+        <v>91500.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="n">
+        <v>45297.928154340276</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" t="n">
+        <v>76500.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="n">
+        <v>45297.92933037037</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="n">
+        <v>66501.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25">
+        <f>SUM(E2:E24)</f>
       </c>
     </row>
   </sheetData>
